--- a/va_facility_data_2025-02-20/Michael E. DeBakey Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Michael%20E.%20DeBakey%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Michael E. DeBakey Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Michael%20E.%20DeBakey%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R58214d232791423e9ef682643b15ba36"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc0e2c43f230940f9ac146e7de1152526"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R9b2c31a5459f4d788b5dc57cf0268202"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R5fcbfa1cba3a465383155f605e127652"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rc41a260739b74c5b96ecb02d782768d7"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R2faf5dcb1bbf44c2ae560f9a819dba79"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rca42f2bf72934c69924ccbdf89f036a5"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R1b08ff83c4814f9ebdcd0aa4112c1ef7"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5f260b10ac304d9ea4b81465e56c1937"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rba4e7511085848f6a7cbc3540a7db0fc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R1a0e5311dc274c00aaecb1ad9a9bd7bd"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R5f271d50df73451ea34e227b9de5a661"/>
   </x:sheets>
 </x:workbook>
 </file>
